--- a/data/trans_orig/P29A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P29A_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB3F6781-3AB3-4AFD-A99B-5ADB04B44314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5E92846-6797-40A1-A430-8EDE63CF01CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E7CD1F54-6C28-448C-B98F-6E62C74F6CF3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8BD0FE05-57F2-4F22-AC5D-52DFB4579714}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="264">
   <si>
     <t>Población que consumió bebidas alcohólicas en las últimas dos semanas en 2016 (Tasa respuesta: 43,49%)</t>
   </si>
@@ -75,226 +75,232 @@
     <t>97,35%</t>
   </si>
   <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
   </si>
   <si>
     <t>96,05%</t>
   </si>
   <si>
-    <t>92,39%</t>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
   </si>
   <si>
     <t>98,32%</t>
   </si>
   <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
+    <t>6,91%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -303,46 +309,52 @@
     <t>99,6%</t>
   </si>
   <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
     <t>98,0%</t>
   </si>
   <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
+    <t>99,73%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
     <t>65 y más</t>
   </si>
   <si>
     <t>98,97%</t>
   </si>
   <si>
-    <t>97,11%</t>
+    <t>97,08%</t>
   </si>
   <si>
     <t>99,7%</t>
@@ -351,16 +363,16 @@
     <t>97,61%</t>
   </si>
   <si>
-    <t>92,25%</t>
+    <t>92,31%</t>
   </si>
   <si>
     <t>98,59%</t>
   </si>
   <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
   </si>
   <si>
     <t>1,03%</t>
@@ -369,70 +381,70 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>2,89%</t>
+    <t>2,92%</t>
   </si>
   <si>
     <t>2,39%</t>
   </si>
   <si>
-    <t>7,75%</t>
+    <t>7,69%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
   </si>
   <si>
     <t>97,17%</t>
   </si>
   <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
   </si>
   <si>
     <t>98,15%</t>
   </si>
   <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -444,235 +456,235 @@
     <t>81,74%</t>
   </si>
   <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
   </si>
   <si>
     <t>70,31%</t>
   </si>
   <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
   </si>
   <si>
     <t>76,61%</t>
   </si>
   <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
   </si>
   <si>
     <t>18,26%</t>
   </si>
   <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
   </si>
   <si>
     <t>29,69%</t>
   </si>
   <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
   </si>
   <si>
     <t>23,39%</t>
   </si>
   <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
   </si>
   <si>
     <t>83,36%</t>
   </si>
   <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
   </si>
   <si>
     <t>64,74%</t>
   </si>
   <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
   </si>
   <si>
     <t>74,75%</t>
   </si>
   <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
   </si>
   <si>
     <t>16,64%</t>
   </si>
   <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
   </si>
   <si>
     <t>35,26%</t>
   </si>
   <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
   </si>
   <si>
     <t>25,25%</t>
   </si>
   <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
   </si>
   <si>
     <t>82,05%</t>
   </si>
   <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
   </si>
   <si>
     <t>67,96%</t>
   </si>
   <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
   </si>
   <si>
     <t>76,4%</t>
   </si>
   <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
   </si>
   <si>
     <t>17,95%</t>
   </si>
   <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
   </si>
   <si>
     <t>32,04%</t>
   </si>
   <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
   </si>
   <si>
     <t>23,6%</t>
   </si>
   <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
   </si>
   <si>
     <t>76,8%</t>
   </si>
   <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
   </si>
   <si>
     <t>69,51%</t>
   </si>
   <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
   </si>
   <si>
     <t>73,96%</t>
   </si>
   <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
   </si>
   <si>
     <t>23,2%</t>
   </si>
   <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
   </si>
   <si>
     <t>30,49%</t>
   </si>
   <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
   </si>
   <si>
     <t>26,04%</t>
   </si>
   <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
   </si>
   <si>
     <t>81,4%</t>
   </si>
   <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
   </si>
   <si>
     <t>70,64%</t>
   </si>
   <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
   </si>
   <si>
     <t>77,38%</t>
@@ -681,31 +693,31 @@
     <t>74,09%</t>
   </si>
   <si>
-    <t>80,57%</t>
+    <t>80,36%</t>
   </si>
   <si>
     <t>18,6%</t>
   </si>
   <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
   </si>
   <si>
     <t>29,36%</t>
   </si>
   <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
   </si>
   <si>
     <t>22,62%</t>
   </si>
   <si>
-    <t>19,43%</t>
+    <t>19,64%</t>
   </si>
   <si>
     <t>25,91%</t>
@@ -714,109 +726,109 @@
     <t>85,79%</t>
   </si>
   <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
   </si>
   <si>
     <t>79,81%</t>
   </si>
   <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
   </si>
   <si>
     <t>83,17%</t>
   </si>
   <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
   </si>
   <si>
     <t>20,19%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
   </si>
   <si>
     <t>16,83%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
   </si>
   <si>
     <t>81,54%</t>
   </si>
   <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
   </si>
   <si>
     <t>70,76%</t>
   </si>
   <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
   </si>
   <si>
     <t>77,06%</t>
   </si>
   <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
   </si>
   <si>
     <t>18,46%</t>
   </si>
   <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
   </si>
   <si>
     <t>29,24%</t>
   </si>
   <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
   </si>
   <si>
     <t>22,94%</t>
   </si>
   <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8739EC-50AB-4CF1-AF61-4C6C584B49BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4703961-B301-4E24-B848-EC9B1D047152}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1665,10 +1677,10 @@
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>234</v>
@@ -1677,13 +1689,13 @@
         <v>233468</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>626</v>
@@ -1692,13 +1704,13 @@
         <v>642503</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1713,13 +1725,13 @@
         <v>2924</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -1728,13 +1740,13 @@
         <v>7716</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -1743,13 +1755,13 @@
         <v>10640</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1805,7 +1817,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1817,13 +1829,13 @@
         <v>370178</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>220</v>
@@ -1832,13 +1844,13 @@
         <v>242127</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>553</v>
@@ -1847,13 +1859,13 @@
         <v>612305</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,13 +1880,13 @@
         <v>2037</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -1883,13 +1895,13 @@
         <v>9438</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -1898,13 +1910,13 @@
         <v>11475</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1960,7 +1972,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1972,13 +1984,13 @@
         <v>264274</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>105</v>
@@ -1987,13 +1999,13 @@
         <v>121266</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M16" s="7">
         <v>339</v>
@@ -2002,13 +2014,13 @@
         <v>385540</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,13 +2035,13 @@
         <v>1056</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -2038,13 +2050,13 @@
         <v>2194</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -2053,13 +2065,13 @@
         <v>3250</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2115,7 +2127,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2127,13 +2139,13 @@
         <v>252200</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>80</v>
@@ -2142,13 +2154,13 @@
         <v>95419</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M19" s="7">
         <v>340</v>
@@ -2157,13 +2169,13 @@
         <v>347619</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2178,13 +2190,13 @@
         <v>2635</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2193,13 +2205,13 @@
         <v>2340</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -2208,13 +2220,13 @@
         <v>4975</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,10 +2297,10 @@
         <v>35</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H22" s="7">
         <v>1027</v>
@@ -2297,13 +2309,13 @@
         <v>1071986</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M22" s="7">
         <v>2803</v>
@@ -2312,13 +2324,13 @@
         <v>2949993</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,10 +2348,10 @@
         <v>44</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H23" s="7">
         <v>30</v>
@@ -2348,13 +2360,13 @@
         <v>31194</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M23" s="7">
         <v>54</v>
@@ -2363,13 +2375,13 @@
         <v>55711</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,7 +2437,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2447,7 +2459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B17BD6B-0DF8-4C61-9E0C-5FA53107095E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25272960-C2CE-4944-B9DF-AF99ECBF2B1C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2464,7 +2476,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2571,13 +2583,13 @@
         <v>161216</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H4" s="7">
         <v>67</v>
@@ -2586,13 +2598,13 @@
         <v>112830</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M4" s="7">
         <v>137</v>
@@ -2601,13 +2613,13 @@
         <v>274046</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,13 +2634,13 @@
         <v>36017</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H5" s="7">
         <v>25</v>
@@ -2637,13 +2649,13 @@
         <v>47636</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M5" s="7">
         <v>38</v>
@@ -2652,13 +2664,13 @@
         <v>83653</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2726,13 +2738,13 @@
         <v>227391</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H7" s="7">
         <v>141</v>
@@ -2741,13 +2753,13 @@
         <v>151872</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M7" s="7">
         <v>296</v>
@@ -2756,13 +2768,13 @@
         <v>379263</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,13 +2789,13 @@
         <v>45404</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H8" s="7">
         <v>62</v>
@@ -2792,13 +2804,13 @@
         <v>82701</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M8" s="7">
         <v>90</v>
@@ -2807,13 +2819,13 @@
         <v>128105</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,16 +2890,16 @@
         <v>270</v>
       </c>
       <c r="D10" s="7">
-        <v>288622</v>
+        <v>288623</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H10" s="7">
         <v>229</v>
@@ -2896,13 +2908,13 @@
         <v>160196</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M10" s="7">
         <v>499</v>
@@ -2911,13 +2923,13 @@
         <v>448820</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,13 +2944,13 @@
         <v>63123</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H11" s="7">
         <v>106</v>
@@ -2947,13 +2959,13 @@
         <v>75524</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M11" s="7">
         <v>164</v>
@@ -2962,13 +2974,13 @@
         <v>138646</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,7 +2992,7 @@
         <v>328</v>
       </c>
       <c r="D12" s="7">
-        <v>351745</v>
+        <v>351746</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3024,7 +3036,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3036,13 +3048,13 @@
         <v>353848</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H13" s="7">
         <v>323</v>
@@ -3051,13 +3063,13 @@
         <v>204931</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M13" s="7">
         <v>658</v>
@@ -3066,13 +3078,13 @@
         <v>558779</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,13 +3099,13 @@
         <v>106905</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H14" s="7">
         <v>132</v>
@@ -3102,13 +3114,13 @@
         <v>89872</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M14" s="7">
         <v>186</v>
@@ -3117,13 +3129,13 @@
         <v>196777</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,7 +3191,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3191,13 +3203,13 @@
         <v>279684</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H16" s="7">
         <v>239</v>
@@ -3206,13 +3218,13 @@
         <v>144479</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M16" s="7">
         <v>545</v>
@@ -3221,13 +3233,13 @@
         <v>424164</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3254,13 @@
         <v>63927</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H17" s="7">
         <v>98</v>
@@ -3257,13 +3269,13 @@
         <v>60064</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M17" s="7">
         <v>165</v>
@@ -3272,13 +3284,13 @@
         <v>123990</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,7 +3346,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3346,13 +3358,13 @@
         <v>307941</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H19" s="7">
         <v>207</v>
@@ -3361,13 +3373,13 @@
         <v>223476</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M19" s="7">
         <v>659</v>
@@ -3376,13 +3388,13 @@
         <v>531417</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,13 +3409,13 @@
         <v>51027</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H20" s="7">
         <v>94</v>
@@ -3412,13 +3424,13 @@
         <v>56539</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M20" s="7">
         <v>166</v>
@@ -3427,13 +3439,13 @@
         <v>107566</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3513,13 @@
         <v>1618703</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H22" s="7">
         <v>1206</v>
@@ -3516,13 +3528,13 @@
         <v>997784</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M22" s="7">
         <v>2794</v>
@@ -3531,13 +3543,13 @@
         <v>2616487</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,13 +3564,13 @@
         <v>366403</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H23" s="7">
         <v>517</v>
@@ -3567,13 +3579,13 @@
         <v>412336</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M23" s="7">
         <v>809</v>
@@ -3582,13 +3594,13 @@
         <v>778738</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,7 +3656,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P29A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P29A_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5E92846-6797-40A1-A430-8EDE63CF01CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BB9B382-7528-455F-86A3-22FA77630FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8BD0FE05-57F2-4F22-AC5D-52DFB4579714}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A5897B73-B46A-42E2-B235-0837CDA4A3FE}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="291">
   <si>
     <t>Población que consumió bebidas alcohólicas en las últimas dos semanas en 2016 (Tasa respuesta: 43,49%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -132,7 +132,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>97,34%</t>
@@ -189,7 +189,7 @@
     <t>3,54%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>99,29%</t>
@@ -246,7 +246,7 @@
     <t>2,89%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>99,45%</t>
@@ -303,7 +303,7 @@
     <t>3,22%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -348,57 +348,84 @@
     <t>2,0%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
   </si>
   <si>
     <t>96,54%</t>
   </si>
   <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
   </si>
   <si>
     <t>3,46%</t>
   </si>
   <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
     <t>98,12%</t>
   </si>
   <si>
@@ -453,382 +480,436 @@
     <t>Población que consumió bebidas alcohólicas en las últimas dos semanas en 2023 (Tasa respuesta: 41,21%)</t>
   </si>
   <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
   </si>
 </sst>
 </file>
@@ -1240,8 +1321,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4703961-B301-4E24-B848-EC9B1D047152}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4867DE-9F3F-4F54-BFF4-1B65C5FB9C4F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1671,7 +1752,7 @@
         <v>392</v>
       </c>
       <c r="D10" s="7">
-        <v>409034</v>
+        <v>409035</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1773,7 +1854,7 @@
         <v>395</v>
       </c>
       <c r="D12" s="7">
-        <v>411958</v>
+        <v>411959</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2133,10 +2214,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>260</v>
+        <v>159</v>
       </c>
       <c r="D19" s="7">
-        <v>252200</v>
+        <v>163855</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>104</v>
@@ -2145,37 +2226,37 @@
         <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="7">
+        <v>59</v>
+      </c>
+      <c r="I19" s="7">
+        <v>64799</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H19" s="7">
-        <v>80</v>
-      </c>
-      <c r="I19" s="7">
-        <v>95419</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>72</v>
       </c>
       <c r="M19" s="7">
-        <v>340</v>
+        <v>218</v>
       </c>
       <c r="N19" s="7">
-        <v>347619</v>
+        <v>228655</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2184,49 +2265,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>2635</v>
+        <v>1871</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1079</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2340</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>80</v>
       </c>
       <c r="L20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M20" s="7">
+        <v>3</v>
+      </c>
+      <c r="N20" s="7">
+        <v>2950</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="M20" s="7">
-        <v>5</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4975</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,10 +2316,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>263</v>
+        <v>161</v>
       </c>
       <c r="D21" s="7">
-        <v>254835</v>
+        <v>165726</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2250,10 +2331,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="I21" s="7">
-        <v>97759</v>
+        <v>65878</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2265,10 +2346,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>345</v>
+        <v>221</v>
       </c>
       <c r="N21" s="7">
-        <v>352594</v>
+        <v>231605</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2282,55 +2363,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1776</v>
+        <v>101</v>
       </c>
       <c r="D22" s="7">
-        <v>1878007</v>
+        <v>88345</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="7">
+        <v>21</v>
+      </c>
+      <c r="I22" s="7">
+        <v>30619</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="7">
-        <v>1027</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1071986</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M22" s="7">
         <v>122</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="N22" s="7">
+        <v>118964</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="M22" s="7">
-        <v>2803</v>
-      </c>
-      <c r="N22" s="7">
-        <v>2949993</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,49 +2420,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>24517</v>
+        <v>764</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1262</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M23" s="7">
+        <v>2</v>
+      </c>
+      <c r="N23" s="7">
+        <v>2026</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H23" s="7">
-        <v>30</v>
-      </c>
-      <c r="I23" s="7">
-        <v>31194</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="M23" s="7">
-        <v>54</v>
-      </c>
-      <c r="N23" s="7">
-        <v>55711</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,63 +2471,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>102</v>
+      </c>
+      <c r="D24" s="7">
+        <v>89109</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>22</v>
+      </c>
+      <c r="I24" s="7">
+        <v>31881</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>124</v>
+      </c>
+      <c r="N24" s="7">
+        <v>120990</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1776</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1878006</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1027</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1071986</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2803</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2949993</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>24</v>
+      </c>
+      <c r="D26" s="7">
+        <v>24517</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H26" s="7">
+        <v>30</v>
+      </c>
+      <c r="I26" s="7">
+        <v>31194</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M26" s="7">
+        <v>54</v>
+      </c>
+      <c r="N26" s="7">
+        <v>55711</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1800</v>
       </c>
-      <c r="D24" s="7">
-        <v>1902524</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>1902523</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>1057</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>1103180</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>2857</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>3005704</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>136</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2459,8 +2696,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25272960-C2CE-4944-B9DF-AF99ECBF2B1C}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E645952-2134-4928-8826-1A429B6B08BF}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2476,7 +2713,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2580,46 +2817,46 @@
         <v>70</v>
       </c>
       <c r="D4" s="7">
-        <v>161216</v>
+        <v>169903</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="H4" s="7">
         <v>67</v>
       </c>
       <c r="I4" s="7">
-        <v>112830</v>
+        <v>100850</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="M4" s="7">
         <v>137</v>
       </c>
       <c r="N4" s="7">
-        <v>274046</v>
+        <v>270753</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,46 +2868,46 @@
         <v>13</v>
       </c>
       <c r="D5" s="7">
-        <v>36017</v>
+        <v>38755</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="H5" s="7">
         <v>25</v>
       </c>
       <c r="I5" s="7">
-        <v>47636</v>
+        <v>45605</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="M5" s="7">
         <v>38</v>
       </c>
       <c r="N5" s="7">
-        <v>83653</v>
+        <v>84360</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,7 +2919,7 @@
         <v>83</v>
       </c>
       <c r="D6" s="7">
-        <v>197233</v>
+        <v>208658</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2697,7 +2934,7 @@
         <v>92</v>
       </c>
       <c r="I6" s="7">
-        <v>160466</v>
+        <v>146455</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2712,7 +2949,7 @@
         <v>175</v>
       </c>
       <c r="N6" s="7">
-        <v>357699</v>
+        <v>355113</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2735,46 +2972,46 @@
         <v>155</v>
       </c>
       <c r="D7" s="7">
-        <v>227391</v>
+        <v>230135</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="H7" s="7">
         <v>141</v>
       </c>
       <c r="I7" s="7">
-        <v>151872</v>
+        <v>142253</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="M7" s="7">
         <v>296</v>
       </c>
       <c r="N7" s="7">
-        <v>379263</v>
+        <v>372388</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2786,46 +3023,46 @@
         <v>28</v>
       </c>
       <c r="D8" s="7">
-        <v>45404</v>
+        <v>42911</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H8" s="7">
         <v>62</v>
       </c>
       <c r="I8" s="7">
-        <v>82701</v>
+        <v>130238</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="M8" s="7">
         <v>90</v>
       </c>
       <c r="N8" s="7">
-        <v>128105</v>
+        <v>173149</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,7 +3074,7 @@
         <v>183</v>
       </c>
       <c r="D9" s="7">
-        <v>272795</v>
+        <v>273046</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2852,7 +3089,7 @@
         <v>203</v>
       </c>
       <c r="I9" s="7">
-        <v>234573</v>
+        <v>272491</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2867,7 +3104,7 @@
         <v>386</v>
       </c>
       <c r="N9" s="7">
-        <v>507368</v>
+        <v>545537</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2890,46 +3127,46 @@
         <v>270</v>
       </c>
       <c r="D10" s="7">
-        <v>288623</v>
+        <v>282183</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="H10" s="7">
         <v>229</v>
       </c>
       <c r="I10" s="7">
-        <v>160196</v>
+        <v>150814</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M10" s="7">
         <v>499</v>
       </c>
       <c r="N10" s="7">
-        <v>448820</v>
+        <v>432997</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,46 +3178,46 @@
         <v>58</v>
       </c>
       <c r="D11" s="7">
-        <v>63123</v>
+        <v>58880</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="H11" s="7">
         <v>106</v>
       </c>
       <c r="I11" s="7">
-        <v>75524</v>
+        <v>70081</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="M11" s="7">
         <v>164</v>
       </c>
       <c r="N11" s="7">
-        <v>138646</v>
+        <v>128961</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,7 +3229,7 @@
         <v>328</v>
       </c>
       <c r="D12" s="7">
-        <v>351746</v>
+        <v>341063</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3007,7 +3244,7 @@
         <v>335</v>
       </c>
       <c r="I12" s="7">
-        <v>235720</v>
+        <v>220895</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3022,7 +3259,7 @@
         <v>663</v>
       </c>
       <c r="N12" s="7">
-        <v>587466</v>
+        <v>561958</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3045,46 +3282,46 @@
         <v>335</v>
       </c>
       <c r="D13" s="7">
-        <v>353848</v>
+        <v>344267</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="H13" s="7">
         <v>323</v>
       </c>
       <c r="I13" s="7">
-        <v>204931</v>
+        <v>192392</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="M13" s="7">
         <v>658</v>
       </c>
       <c r="N13" s="7">
-        <v>558779</v>
+        <v>536659</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3096,46 +3333,46 @@
         <v>54</v>
       </c>
       <c r="D14" s="7">
-        <v>106905</v>
+        <v>297484</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="H14" s="7">
         <v>132</v>
       </c>
       <c r="I14" s="7">
-        <v>89872</v>
+        <v>82360</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="M14" s="7">
         <v>186</v>
       </c>
       <c r="N14" s="7">
-        <v>196777</v>
+        <v>379843</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,7 +3384,7 @@
         <v>389</v>
       </c>
       <c r="D15" s="7">
-        <v>460753</v>
+        <v>641751</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3162,7 +3399,7 @@
         <v>455</v>
       </c>
       <c r="I15" s="7">
-        <v>294803</v>
+        <v>274752</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3177,7 +3414,7 @@
         <v>844</v>
       </c>
       <c r="N15" s="7">
-        <v>755556</v>
+        <v>916502</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3200,46 +3437,46 @@
         <v>306</v>
       </c>
       <c r="D16" s="7">
-        <v>279684</v>
+        <v>264194</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="H16" s="7">
         <v>239</v>
       </c>
       <c r="I16" s="7">
-        <v>144479</v>
+        <v>134296</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="M16" s="7">
         <v>545</v>
       </c>
       <c r="N16" s="7">
-        <v>424164</v>
+        <v>398490</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,46 +3488,46 @@
         <v>67</v>
       </c>
       <c r="D17" s="7">
-        <v>63927</v>
+        <v>58709</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="H17" s="7">
         <v>98</v>
       </c>
       <c r="I17" s="7">
-        <v>60064</v>
+        <v>54349</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="M17" s="7">
         <v>165</v>
       </c>
       <c r="N17" s="7">
-        <v>123990</v>
+        <v>113058</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,7 +3539,7 @@
         <v>373</v>
       </c>
       <c r="D18" s="7">
-        <v>343611</v>
+        <v>322903</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3317,7 +3554,7 @@
         <v>337</v>
       </c>
       <c r="I18" s="7">
-        <v>204543</v>
+        <v>188645</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3332,7 +3569,7 @@
         <v>710</v>
       </c>
       <c r="N18" s="7">
-        <v>548154</v>
+        <v>511548</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3352,49 +3589,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>452</v>
+        <v>288</v>
       </c>
       <c r="D19" s="7">
-        <v>307941</v>
+        <v>189996</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="H19" s="7">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c r="I19" s="7">
-        <v>223476</v>
+        <v>280153</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="M19" s="7">
-        <v>659</v>
+        <v>440</v>
       </c>
       <c r="N19" s="7">
-        <v>531417</v>
+        <v>470149</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,49 +3640,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="D20" s="7">
-        <v>51027</v>
+        <v>24054</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="H20" s="7">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="I20" s="7">
-        <v>56539</v>
+        <v>30184</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="M20" s="7">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="N20" s="7">
-        <v>107566</v>
+        <v>54238</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,10 +3691,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>524</v>
+        <v>326</v>
       </c>
       <c r="D21" s="7">
-        <v>358968</v>
+        <v>214050</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3469,10 +3706,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>301</v>
+        <v>209</v>
       </c>
       <c r="I21" s="7">
-        <v>280015</v>
+        <v>310337</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3484,10 +3721,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>825</v>
+        <v>535</v>
       </c>
       <c r="N21" s="7">
-        <v>638983</v>
+        <v>524387</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3501,55 +3738,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1588</v>
+        <v>164</v>
       </c>
       <c r="D22" s="7">
-        <v>1618703</v>
+        <v>99624</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="H22" s="7">
-        <v>1206</v>
+        <v>55</v>
       </c>
       <c r="I22" s="7">
-        <v>997784</v>
+        <v>27433</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="M22" s="7">
-        <v>2794</v>
+        <v>219</v>
       </c>
       <c r="N22" s="7">
-        <v>2616487</v>
+        <v>127058</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,49 +3795,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>292</v>
+        <v>34</v>
       </c>
       <c r="D23" s="7">
-        <v>366403</v>
+        <v>22117</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="H23" s="7">
-        <v>517</v>
+        <v>37</v>
       </c>
       <c r="I23" s="7">
-        <v>412336</v>
+        <v>19493</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="M23" s="7">
-        <v>809</v>
+        <v>71</v>
       </c>
       <c r="N23" s="7">
-        <v>778738</v>
+        <v>41609</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,63 +3846,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>198</v>
+      </c>
+      <c r="D24" s="7">
+        <v>121741</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>92</v>
+      </c>
+      <c r="I24" s="7">
+        <v>46926</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>290</v>
+      </c>
+      <c r="N24" s="7">
+        <v>168667</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1588</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1580302</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1206</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1028192</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2794</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2608494</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>292</v>
+      </c>
+      <c r="D26" s="7">
+        <v>542910</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H26" s="7">
+        <v>517</v>
+      </c>
+      <c r="I26" s="7">
+        <v>432309</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="M26" s="7">
+        <v>809</v>
+      </c>
+      <c r="N26" s="7">
+        <v>975219</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1880</v>
       </c>
-      <c r="D24" s="7">
-        <v>1985106</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>2123212</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>1723</v>
       </c>
-      <c r="I24" s="7">
-        <v>1410120</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>1460501</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>3603</v>
       </c>
-      <c r="N24" s="7">
-        <v>3395225</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>136</v>
+      <c r="N27" s="7">
+        <v>3583713</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
